--- a/clientesInadimplencia.xlsx
+++ b/clientesInadimplencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lucas LOCAL\lembreteInadimplencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B64282-E63A-4939-A93D-55DB820F2B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9D47FD-DAEA-4666-B109-79B7FBB2C9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-240" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>cliente_nome</t>
-  </si>
-  <si>
-    <t>cliente_email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>lucassalves005@gmail.com</t>
+  </si>
+  <si>
+    <t>lalves@atomotek.com.br</t>
+  </si>
+  <si>
+    <t>Lucas Alves</t>
+  </si>
+  <si>
+    <t>Lucas Santos</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +83,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,27 +371,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{CF982459-8C4C-4E10-9696-8DE4D9BE482B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A2453DDB-788A-422D-AB7F-B910AB67A585}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/clientesInadimplencia.xlsx
+++ b/clientesInadimplencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lucas LOCAL\lembreteInadimplencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9D47FD-DAEA-4666-B109-79B7FBB2C9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092821C-DCE3-4E14-8C6A-C50C2C0FE393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>lucassalves005@gmail.com</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>nome</t>
+  </si>
+  <si>
+    <t>financeiro@micdigital.com.br</t>
+  </si>
+  <si>
+    <t>financeiro2@micdigital.com.br</t>
+  </si>
+  <si>
+    <t>Rosi</t>
+  </si>
+  <si>
+    <t>Ana</t>
   </si>
 </sst>
 </file>
@@ -371,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -407,10 +419,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{CF982459-8C4C-4E10-9696-8DE4D9BE482B}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{A2453DDB-788A-422D-AB7F-B910AB67A585}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{27BEFC1C-B382-4B01-80D0-1BC1453CF47C}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{92137BD6-9738-4138-8AF4-3519D98B814C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
